--- a/3_Documentos/Cronograma.xlsx
+++ b/3_Documentos/Cronograma.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA253AF-4C71-4E2F-B452-4A8177E9F3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DBD9DC-38D5-4DDE-A2B4-D89E858D816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t>Insira o Nome da empresa na célula B2.</t>
   </si>
@@ -500,187 +500,6 @@
   </si>
   <si>
     <t>Listar fatores que influenciam a decisão do modelo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Entregáveis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. Data Pipeline para automatizar todas as etapas de um projeto de dados. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2. Modelo preditivo que dado um determinado conjunto de características o modelo consiga detectar se a pessoa está com alguma das doenças ou não e a sua probabilidade. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3. Código fonte e artefatos do projeto. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4. Listagem de fatores que influenciam a decisão do modelo. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5. Relatório com insights gerados a partir dos dados. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">6. Dashboard para tomada de decisão. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7. Data App ou API para consumo do modelo. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8. Apresentação em formato slide ou pdf.</t>
-    </r>
   </si>
   <si>
     <t>Gerar Relatório com insights gerados a partir dos dados</t>
@@ -703,7 +522,7 @@
     <numFmt numFmtId="168" formatCode="d"/>
     <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,13 +791,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2639,9 +2451,9 @@
   </sheetPr>
   <dimension ref="A1:BP80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3382,7 +3194,7 @@
     <row r="10" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="31" t="s">
@@ -3697,7 +3509,7 @@
     <row r="14" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="31" t="s">
@@ -3787,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="31" t="s">
@@ -3874,8 +3686,8 @@
     </row>
     <row r="16" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
-      <c r="B16" s="71">
-        <v>0</v>
+      <c r="B16" s="70">
+        <v>1</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
@@ -3960,7 +3772,7 @@
     <row r="17" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
       <c r="B17" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="31" t="s">
@@ -4129,7 +3941,7 @@
     </row>
     <row r="19" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
-      <c r="B19" s="71">
+      <c r="B19" s="70">
         <v>1</v>
       </c>
       <c r="C19" s="61"/>
@@ -4215,7 +4027,7 @@
     <row r="20" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9"/>
       <c r="B20" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="31" t="s">
@@ -4387,8 +4199,8 @@
     </row>
     <row r="22" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
-      <c r="B22" s="71">
-        <v>0</v>
+      <c r="B22" s="70">
+        <v>1</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="62" t="s">
@@ -4473,7 +4285,7 @@
     <row r="23" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="31" t="s">
@@ -4797,7 +4609,7 @@
     <row r="27" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="28" t="s">
@@ -4885,7 +4697,7 @@
     <row r="28" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="75" t="s">
@@ -4973,7 +4785,7 @@
     <row r="29" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="28" t="s">
@@ -5061,7 +4873,7 @@
     <row r="30" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="28" t="s">
@@ -5149,7 +4961,7 @@
     <row r="31" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="28" t="s">
@@ -5237,7 +5049,7 @@
     <row r="32" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="75" t="s">
@@ -5325,7 +5137,7 @@
     <row r="33" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="B33" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="28" t="s">
@@ -5412,8 +5224,8 @@
     </row>
     <row r="34" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
-      <c r="B34" s="71">
-        <v>0</v>
+      <c r="B34" s="70">
+        <v>1</v>
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="28" t="s">
@@ -5734,7 +5546,7 @@
     <row r="38" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="28" t="s">
@@ -5820,7 +5632,7 @@
     <row r="39" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="28" t="s">
@@ -5906,7 +5718,7 @@
     <row r="40" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="28" t="s">
@@ -5992,7 +5804,7 @@
     <row r="41" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="75" t="s">
@@ -6078,7 +5890,7 @@
     <row r="42" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="B42" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="28" t="s">
@@ -6164,7 +5976,7 @@
     <row r="43" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="75" t="s">
@@ -6250,7 +6062,7 @@
     <row r="44" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="75" t="s">
@@ -6572,7 +6384,7 @@
     <row r="48" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="28" t="s">
@@ -6658,7 +6470,7 @@
     <row r="49" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="75" t="s">
@@ -6744,7 +6556,7 @@
     <row r="50" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="28" t="s">
@@ -6830,7 +6642,7 @@
     <row r="51" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
       <c r="B51" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="28" t="s">
@@ -6916,7 +6728,7 @@
     <row r="52" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="28" t="s">
@@ -7002,7 +6814,7 @@
     <row r="53" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
       <c r="B53" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="75" t="s">
@@ -7088,7 +6900,7 @@
     <row r="54" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
       <c r="B54" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="28" t="s">
@@ -7174,7 +6986,7 @@
     <row r="55" spans="1:68" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
       <c r="B55" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="28" t="s">
@@ -7260,7 +7072,7 @@
     <row r="56" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
       <c r="B56" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="28" t="s">
@@ -7346,7 +7158,7 @@
     <row r="57" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
       <c r="B57" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="28" t="s">
@@ -7432,7 +7244,7 @@
     <row r="58" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
       <c r="B58" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="75" t="s">
@@ -7518,7 +7330,7 @@
     <row r="59" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="28" t="s">
@@ -7604,7 +7416,7 @@
     <row r="60" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="28" t="s">
@@ -7926,7 +7738,7 @@
     <row r="64" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8"/>
       <c r="B64" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="28" t="s">
@@ -8012,7 +7824,7 @@
     <row r="65" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
       <c r="B65" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="75" t="s">
@@ -8098,11 +7910,11 @@
     <row r="66" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8"/>
       <c r="B66" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66" s="104" t="s">
         <v>115</v>
@@ -8184,7 +7996,7 @@
     <row r="67" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8"/>
       <c r="B67" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="28" t="s">
@@ -8270,7 +8082,7 @@
     <row r="68" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
       <c r="B68" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="28" t="s">
@@ -8356,7 +8168,7 @@
     <row r="69" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
       <c r="B69" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="28" t="s">
@@ -8442,14 +8254,14 @@
     <row r="70" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8"/>
       <c r="B70" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="28" t="s">
         <v>101</v>
       </c>
       <c r="E70" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F70" s="40"/>
       <c r="G70" s="27"/>
@@ -8528,14 +8340,14 @@
     <row r="71" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8"/>
       <c r="B71" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E71" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F71" s="40"/>
       <c r="G71" s="27"/>
@@ -8614,7 +8426,7 @@
     <row r="72" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8"/>
       <c r="B72" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="28" t="s">
@@ -8700,7 +8512,7 @@
     <row r="73" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8"/>
       <c r="B73" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="30"/>
       <c r="D73" s="75" t="s">
@@ -8786,7 +8598,7 @@
     <row r="74" spans="1:68" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8"/>
       <c r="B74" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="28" t="s">
@@ -9183,10 +8995,8 @@
     <row r="79" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:68" ht="174" x14ac:dyDescent="0.35">
-      <c r="D80" s="78" t="s">
-        <v>121</v>
-      </c>
+    <row r="80" spans="1:68" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D80" s="78"/>
       <c r="E80" s="103"/>
       <c r="G80" s="4"/>
     </row>
